--- a/US-COVID-Dataset/Main.xlsx
+++ b/US-COVID-Dataset/Main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satyakiroy/PythonCodes/Covid/MachineLearning/Viz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satyakiroy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C00B2F-B2A8-9847-9122-01539D4D5659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE1E0D-C89F-C649-BABC-921578508E0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>State</t>
   </si>
@@ -559,12 +559,15 @@
   <si>
     <t>FirstInf-Lockdown</t>
   </si>
+  <si>
+    <t>Percentage Change 2019-20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +600,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -717,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -745,6 +756,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV52"/>
+  <dimension ref="A1:DW52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DJ1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="DY13" sqref="DY13"/>
+      <selection activeCell="DW20" sqref="DW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1139,9 +1152,10 @@
     <col min="124" max="124" width="17.5" customWidth="1"/>
     <col min="125" max="125" width="17.33203125" customWidth="1"/>
     <col min="126" max="126" width="17.83203125" customWidth="1"/>
+    <col min="127" max="127" width="33" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:127" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1520,8 +1534,11 @@
       <c r="DV1" s="19" t="s">
         <v>175</v>
       </c>
+      <c r="DW1" s="21" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="2" spans="1:126" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:127" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1933,8 +1950,11 @@
       <c r="DV2">
         <v>11</v>
       </c>
+      <c r="DW2" s="22">
+        <v>-2.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -2346,8 +2366,11 @@
       <c r="DV3">
         <v>12</v>
       </c>
+      <c r="DW3" s="22">
+        <v>-3.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -2759,8 +2782,11 @@
       <c r="DV4">
         <v>58</v>
       </c>
+      <c r="DW4" s="22">
+        <v>-5.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -3172,8 +3198,11 @@
       <c r="DV5">
         <v>13</v>
       </c>
+      <c r="DW5" s="22">
+        <v>-2.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -3585,8 +3614,11 @@
       <c r="DV6">
         <v>59</v>
       </c>
+      <c r="DW6" s="22">
+        <v>-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -3998,8 +4030,11 @@
       <c r="DV7">
         <v>19</v>
       </c>
+      <c r="DW7" s="22">
+        <v>-4.4000000000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -4411,8 +4446,11 @@
       <c r="DV8">
         <v>16</v>
       </c>
+      <c r="DW8" s="22">
+        <v>-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -4824,8 +4862,11 @@
       <c r="DV9">
         <v>13</v>
       </c>
+      <c r="DW9" s="22">
+        <v>-4.0999999999999996</v>
+      </c>
     </row>
-    <row r="10" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -5237,8 +5278,11 @@
       <c r="DV10">
         <v>23</v>
       </c>
+      <c r="DW10" s="22">
+        <v>-2.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -5650,8 +5694,11 @@
       <c r="DV11">
         <v>22</v>
       </c>
+      <c r="DW11" s="22">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -6063,8 +6110,11 @@
       <c r="DV12">
         <v>18</v>
       </c>
+      <c r="DW12" s="22">
+        <v>-3.8</v>
+      </c>
     </row>
-    <row r="13" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -6476,8 +6526,11 @@
       <c r="DV13">
         <v>11</v>
       </c>
+      <c r="DW13" s="22">
+        <v>-2.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -6889,8 +6942,11 @@
       <c r="DV14">
         <v>60</v>
       </c>
+      <c r="DW14" s="22">
+        <v>-2.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -7302,8 +7358,11 @@
       <c r="DV15">
         <v>18</v>
       </c>
+      <c r="DW15" s="22">
+        <v>-5.4</v>
+      </c>
     </row>
-    <row r="16" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -7715,8 +7774,11 @@
       <c r="DV16">
         <v>16</v>
       </c>
+      <c r="DW16" s="22">
+        <v>-5.4</v>
+      </c>
     </row>
-    <row r="17" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -8128,8 +8190,11 @@
       <c r="DV17">
         <v>17</v>
       </c>
+      <c r="DW17" s="22">
+        <v>-1.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -8541,8 +8606,11 @@
       <c r="DV18">
         <v>18</v>
       </c>
+      <c r="DW18" s="22">
+        <v>-3.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -8954,8 +9022,11 @@
       <c r="DV19">
         <v>15</v>
       </c>
+      <c r="DW19" s="22">
+        <v>-4.9000000000000004</v>
+      </c>
     </row>
-    <row r="20" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -9367,8 +9438,11 @@
       <c r="DV20">
         <v>12</v>
       </c>
+      <c r="DW20" s="22">
+        <v>-3.1</v>
+      </c>
     </row>
-    <row r="21" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -9780,8 +9854,11 @@
       <c r="DV21">
         <v>19</v>
       </c>
+      <c r="DW21" s="22">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="22" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -10193,8 +10270,11 @@
       <c r="DV22">
         <v>53</v>
       </c>
+      <c r="DW22" s="22">
+        <v>-4.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -10606,8 +10686,11 @@
       <c r="DV23">
         <v>14</v>
       </c>
+      <c r="DW23" s="22">
+        <v>-5.4</v>
+      </c>
     </row>
-    <row r="24" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -11019,8 +11102,11 @@
       <c r="DV24">
         <v>18</v>
       </c>
+      <c r="DW24" s="22">
+        <v>-4.0999999999999996</v>
+      </c>
     </row>
-    <row r="25" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -11433,8 +11519,11 @@
       <c r="DV25">
         <v>13</v>
       </c>
+      <c r="DW25" s="22">
+        <v>-5.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -11846,8 +11935,11 @@
       <c r="DV26">
         <v>17</v>
       </c>
+      <c r="DW26" s="22">
+        <v>-2.8</v>
+      </c>
     </row>
-    <row r="27" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -12259,8 +12351,11 @@
       <c r="DV27">
         <v>11</v>
       </c>
+      <c r="DW27" s="22">
+        <v>-4.0999999999999996</v>
+      </c>
     </row>
-    <row r="28" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -12672,8 +12767,11 @@
       <c r="DV28">
         <v>37</v>
       </c>
+      <c r="DW28" s="22">
+        <v>-2.7</v>
+      </c>
     </row>
-    <row r="29" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -13085,8 +13183,11 @@
       <c r="DV29">
         <v>19</v>
       </c>
+      <c r="DW29" s="22">
+        <v>-3.7</v>
+      </c>
     </row>
-    <row r="30" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -13498,8 +13599,11 @@
       <c r="DV30">
         <v>22</v>
       </c>
+      <c r="DW30" s="22">
+        <v>-6.1</v>
+      </c>
     </row>
-    <row r="31" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -13911,8 +14015,11 @@
       <c r="DV31">
         <v>20</v>
       </c>
+      <c r="DW31" s="22">
+        <v>-2.2999999999999998</v>
+      </c>
     </row>
-    <row r="32" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -14324,8 +14431,11 @@
       <c r="DV32">
         <v>13</v>
       </c>
+      <c r="DW32" s="22">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="33" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -14737,8 +14847,11 @@
       <c r="DV33">
         <v>23</v>
       </c>
+      <c r="DW33" s="22">
+        <v>-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -15150,8 +15263,11 @@
       <c r="DV34">
         <v>21</v>
       </c>
+      <c r="DW34" s="22">
+        <v>-4.5999999999999996</v>
+      </c>
     </row>
-    <row r="35" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -15563,8 +15679,11 @@
       <c r="DV35">
         <v>13</v>
       </c>
+      <c r="DW35" s="22">
+        <v>-4.9000000000000004</v>
+      </c>
     </row>
-    <row r="36" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -15976,8 +16095,11 @@
       <c r="DV36">
         <v>15</v>
       </c>
+      <c r="DW36" s="22">
+        <v>-2.1</v>
+      </c>
     </row>
-    <row r="37" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -16389,8 +16511,11 @@
       <c r="DV37">
         <v>18</v>
       </c>
+      <c r="DW37" s="22">
+        <v>-5.4</v>
+      </c>
     </row>
-    <row r="38" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -16802,8 +16927,11 @@
       <c r="DV38">
         <v>26</v>
       </c>
+      <c r="DW38" s="22">
+        <v>-3.1</v>
+      </c>
     </row>
-    <row r="39" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -17215,8 +17343,11 @@
       <c r="DV39">
         <v>18</v>
       </c>
+      <c r="DW39" s="22">
+        <v>-8</v>
+      </c>
     </row>
-    <row r="40" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -17628,8 +17759,11 @@
       <c r="DV40">
         <v>23</v>
       </c>
+      <c r="DW40" s="22">
+        <v>-4.7</v>
+      </c>
     </row>
-    <row r="41" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -18041,8 +18175,11 @@
       <c r="DV41">
         <v>18</v>
       </c>
+      <c r="DW41" s="22">
+        <v>-5.5</v>
+      </c>
     </row>
-    <row r="42" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -18454,8 +18591,11 @@
       <c r="DV42">
         <v>14</v>
       </c>
+      <c r="DW42" s="22">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
-    <row r="43" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -18867,8 +19007,11 @@
       <c r="DV43">
         <v>19</v>
       </c>
+      <c r="DW43" s="22">
+        <v>-3.9</v>
+      </c>
     </row>
-    <row r="44" spans="1:126" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:127" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -19280,8 +19423,11 @@
       <c r="DV44">
         <v>42</v>
       </c>
+      <c r="DW44" s="22">
+        <v>-3.7</v>
+      </c>
     </row>
-    <row r="45" spans="1:126" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:127" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -19693,8 +19839,11 @@
       <c r="DV45">
         <v>29</v>
       </c>
+      <c r="DW45" s="22">
+        <v>-4.5</v>
+      </c>
     </row>
-    <row r="46" spans="1:126" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:127" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -20106,8 +20255,11 @@
       <c r="DV46">
         <v>17</v>
       </c>
+      <c r="DW46" s="22">
+        <v>-3.5</v>
+      </c>
     </row>
-    <row r="47" spans="1:126" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:127" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -20519,8 +20671,11 @@
       <c r="DV47">
         <v>17</v>
       </c>
+      <c r="DW47" s="22">
+        <v>-2.7</v>
+      </c>
     </row>
-    <row r="48" spans="1:126" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:127" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>132</v>
       </c>
@@ -20932,8 +21087,11 @@
       <c r="DV48">
         <v>63</v>
       </c>
+      <c r="DW48" s="22">
+        <v>-1.7</v>
+      </c>
     </row>
-    <row r="49" spans="1:126" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:127" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -21345,8 +21503,11 @@
       <c r="DV49">
         <v>7</v>
       </c>
+      <c r="DW49" s="22">
+        <v>-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:126" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:127" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -21758,8 +21919,11 @@
       <c r="DV50">
         <v>49</v>
       </c>
+      <c r="DW50" s="22">
+        <v>-7</v>
+      </c>
     </row>
-    <row r="51" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -22171,8 +22335,11 @@
       <c r="DV51">
         <v>13</v>
       </c>
+      <c r="DW51" s="22">
+        <v>-5.4</v>
+      </c>
     </row>
-    <row r="52" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:127" x14ac:dyDescent="0.2">
       <c r="BK52" s="9"/>
       <c r="BL52" s="9"/>
       <c r="BM52" s="9"/>
